--- a/var_info/indv_panel_var_info/COGECON_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/COGECON_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AC92FA-73E7-7442-8004-DBECA01449E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A7F27-8058-834E-AEFF-E7D2813F0865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$F$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$F$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$28</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="92">
   <si>
     <t>MINT</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Older Adults</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -787,11 +790,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1147,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O187"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,54 +1158,57 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1230,7 +1233,7 @@
       <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>40</v>
       </c>
       <c r="J2">
@@ -1242,8 +1245,11 @@
       <c r="L2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1268,7 +1274,7 @@
       <c r="H3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -1280,8 +1286,11 @@
       <c r="L3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1306,7 +1315,7 @@
       <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
       <c r="J4">
@@ -1318,8 +1327,11 @@
       <c r="L4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1344,7 +1356,7 @@
       <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
       <c r="J5">
@@ -1356,8 +1368,11 @@
       <c r="L5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1382,7 +1397,7 @@
       <c r="H6" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>40</v>
       </c>
       <c r="J6">
@@ -1397,8 +1412,11 @@
       <c r="M6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1423,7 +1441,7 @@
       <c r="H7" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>40</v>
       </c>
       <c r="J7">
@@ -1438,8 +1456,11 @@
       <c r="M7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1464,7 +1485,7 @@
       <c r="H8" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>40</v>
       </c>
       <c r="J8">
@@ -1479,8 +1500,11 @@
       <c r="M8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1505,7 +1529,7 @@
       <c r="H9" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>40</v>
       </c>
       <c r="J9">
@@ -1520,8 +1544,11 @@
       <c r="M9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1546,7 +1573,7 @@
       <c r="H10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
       <c r="J10">
@@ -1561,8 +1588,11 @@
       <c r="M10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1587,7 +1617,7 @@
       <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>40</v>
       </c>
       <c r="J11">
@@ -1602,8 +1632,11 @@
       <c r="M11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1628,7 +1661,7 @@
       <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>40</v>
       </c>
       <c r="J12">
@@ -1643,8 +1676,11 @@
       <c r="M12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1669,7 +1705,7 @@
       <c r="H13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>40</v>
       </c>
       <c r="J13">
@@ -1684,8 +1720,11 @@
       <c r="M13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1710,7 +1749,7 @@
       <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>40</v>
       </c>
       <c r="J14">
@@ -1725,8 +1764,11 @@
       <c r="M14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1751,7 +1793,7 @@
       <c r="H15" t="s">
         <v>62</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>40</v>
       </c>
       <c r="J15">
@@ -1766,8 +1808,11 @@
       <c r="M15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1792,7 +1837,7 @@
       <c r="H16" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>40</v>
       </c>
       <c r="J16">
@@ -1807,8 +1852,11 @@
       <c r="M16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1833,7 +1881,7 @@
       <c r="H17" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>40</v>
       </c>
       <c r="J17">
@@ -1848,8 +1896,11 @@
       <c r="M17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1874,7 +1925,7 @@
       <c r="H18" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>40</v>
       </c>
       <c r="J18">
@@ -1889,8 +1940,11 @@
       <c r="M18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1915,7 +1969,7 @@
       <c r="H19" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" t="s">
         <v>40</v>
       </c>
       <c r="J19">
@@ -1930,8 +1984,11 @@
       <c r="M19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1956,7 +2013,7 @@
       <c r="H20" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" t="s">
         <v>40</v>
       </c>
       <c r="J20">
@@ -1971,8 +2028,11 @@
       <c r="M20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1997,7 +2057,7 @@
       <c r="H21" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" t="s">
         <v>40</v>
       </c>
       <c r="J21">
@@ -2012,8 +2072,11 @@
       <c r="M21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -2038,7 +2101,7 @@
       <c r="H22" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" t="s">
         <v>40</v>
       </c>
       <c r="J22">
@@ -2053,8 +2116,11 @@
       <c r="M22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -2079,7 +2145,7 @@
       <c r="H23" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" t="s">
         <v>40</v>
       </c>
       <c r="J23">
@@ -2094,8 +2160,11 @@
       <c r="M23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -2120,7 +2189,7 @@
       <c r="H24" t="s">
         <v>62</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>40</v>
       </c>
       <c r="J24">
@@ -2135,8 +2204,11 @@
       <c r="M24" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -2161,7 +2233,7 @@
       <c r="H25" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" t="s">
         <v>40</v>
       </c>
       <c r="J25">
@@ -2176,54 +2248,9 @@
       <c r="M25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I28" s="2"/>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E138" s="1"/>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E156" s="1"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E169" s="1"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E181" s="1"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E187" s="1"/>
+      <c r="O25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2232,62 +2259,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2303,11 +2333,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2323,11 +2353,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2343,11 +2373,11 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2363,7 +2393,7 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2374,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2385,54 +2415,57 @@
     <col min="5" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2448,11 +2481,11 @@
       <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2468,11 +2501,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2488,11 +2521,11 @@
       <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2508,11 +2541,11 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2528,11 +2561,11 @@
       <c r="E6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2548,11 +2581,11 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2568,11 +2601,11 @@
       <c r="E8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2588,7 +2621,7 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2599,62 +2632,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="C1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2670,11 +2706,11 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2690,11 +2726,11 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2710,11 +2746,11 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -2730,11 +2766,11 @@
       <c r="E5" t="s">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -2750,11 +2786,11 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -2770,11 +2806,11 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2790,11 +2826,11 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2810,7 +2846,7 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2821,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FC23AF-DBB0-9E48-AA65-E74E9B9505B8}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2834,54 +2870,57 @@
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2912,11 +2951,14 @@
       <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2947,11 +2989,14 @@
       <c r="M3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2982,11 +3027,14 @@
       <c r="M4" t="s">
         <v>45</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3017,7 +3065,10 @@
       <c r="M5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3030,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F882C474-8A39-494D-BB5C-31D47B9A857B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
